--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -97,6 +97,16 @@
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="1.76pt solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
@@ -142,7 +152,7 @@
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N2">
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N4">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -157,11 +167,6 @@
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N4">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
     <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N2">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
@@ -182,6 +187,10 @@
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
     </style:style>
     <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N104">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce42" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
     </style:style>
@@ -199,42 +208,42 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
             <text:p>Today's change</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
             <text:p>Total cost</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
             <text:p>Total market value</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
             <text:p>Total gain/loss</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
             <text:p>Total gain/loss (%)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce23"/>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -243,13 +252,13 @@
       </table:table>
       <table:table table:name="Current" table:style-name="ta2">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce2"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="2" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce1"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce24"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce23"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce23"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce23"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="54" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
@@ -283,11 +292,11 @@
             <text:p>Gain/Loss (%)</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
             <text:p>Today’s change</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce20" office:value-type="currency" office:currency="USD" office:value="-42.7" calcext:value-type="currency">
-            <text:p>-$42.70</text:p>
+          <table:table-cell table:style-name="ce20" office:value-type="currency" office:currency="USD" office:value="0" calcext:value-type="currency">
+            <text:p>$0.00</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="51"/>
         </table:table-row>
@@ -302,14 +311,14 @@
             <table:table-cell table:style-name="ce10" office:value-type="percentage" office:value="-0.00824766219434273" calcext:value-type="percentage">
               <text:p>-0.82%</text:p>
             </table:table-cell>
-            <table:table-cell table:style-name="ce8" office:value-type="float" office:value="24.212" calcext:value-type="float">
-              <text:p>24.212</text:p>
+            <table:table-cell table:style-name="ce8" office:value-type="float" office:value="1" calcext:value-type="float">
+              <text:p>1</text:p>
             </table:table-cell>
             <table:table-cell table:style-name="ce8" office:value-type="float" office:value="145.54" calcext:value-type="float">
               <text:p>145.54</text:p>
             </table:table-cell>
-            <table:table-cell table:style-name="ce14" office:value-type="float" office:value="3508.01" calcext:value-type="float">
-              <text:p>3,508.01</text:p>
+            <table:table-cell table:style-name="ce14" office:value-type="float" office:value="145.54" calcext:value-type="float">
+              <text:p>145.54</text:p>
             </table:table-cell>
             <table:table-cell table:style-name="ce8" office:value-type="float" office:value="170.75" calcext:value-type="float">
               <text:p>170.75</text:p>
@@ -324,32 +333,29 @@
               <text:p>17.8502626845419</text:p>
             </table:table-cell>
             <table:table-cell/>
-            <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
               <text:p>Prior day’s portfolio value</text:p>
             </table:table-cell>
-            <table:table-cell table:style-name="ce20" office:value-type="currency" office:currency="USD" office:value="5630.359883" calcext:value-type="currency">
-              <text:p>$5,630.36</text:p>
+            <table:table-cell table:style-name="ce42" office:value-type="float" office:value="0" calcext:value-type="float">
+              <text:p>0</text:p>
             </table:table-cell>
             <table:table-cell table:number-columns-repeated="51"/>
           </table:table-row>
           <table:table-row table:style-name="ro1">
             <table:table-cell office:value-type="string" calcext:value-type="string">
-              <text:p>Schwab US Large Cap ETF</text:p>
+              <text:p>Apple</text:p>
             </table:table-cell>
             <table:table-cell office:value-type="string" calcext:value-type="string">
-              <text:p>SCHX</text:p>
+              <text:p>AAPL</text:p>
             </table:table-cell>
             <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.00845691874004164" calcext:value-type="percentage">
               <text:p>-0.85%</text:p>
             </table:table-cell>
-            <table:table-cell office:value-type="float" office:value="8.0327" calcext:value-type="float">
-              <text:p>8.0327</text:p>
-            </table:table-cell>
-            <table:table-cell table:style-name="ce12" office:value-type="float" office:value="59.875" calcext:value-type="float">
-              <text:p>59.88</text:p>
-            </table:table-cell>
-            <table:table-cell table:style-name="ce15" office:value-type="float" office:value="479" calcext:value-type="float">
-              <text:p>479.00</text:p>
+            <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+              <text:p>1</text:p>
+            </table:table-cell>
+            <table:table-cell table:number-columns-repeated="2" table:style-name="ce15" office:value-type="float" office:value="95.5" calcext:value-type="float">
+              <text:p>95.50</text:p>
             </table:table-cell>
             <table:table-cell office:value-type="float" office:value="80.9" calcext:value-type="float">
               <text:p>80.9</text:p>
@@ -368,88 +374,79 @@
         </table:table-row-group>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Vanguard Total International Stock ETF Ex. U.S.</text:p>
+            <text:p>Microsoft</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MSFT</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.000371126368528542" calcext:value-type="percentage">
+            <text:p>-0.04%</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce15" office:value-type="float" office:value="201" calcext:value-type="float">
+            <text:p>201.00</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="53.87" calcext:value-type="float">
+            <text:p>53.87</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="108.289474" calcext:value-type="float">
+            <text:p>108.289474</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="62.909474" calcext:value-type="float">
+            <text:p>62.909474</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="138.62819303658" calcext:value-type="float">
+            <text:p>138.62819303658</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="54"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+            <text:p>Tesla</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TSLA</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.00381084358219295" calcext:value-type="percentage">
+            <text:p>-0.38%</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce15" office:value-type="float" office:value="420" calcext:value-type="float">
+            <text:p>420.00</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="115.02" calcext:value-type="float">
+            <text:p>115.02</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="577.756962" calcext:value-type="float">
+            <text:p>577.756962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="154.756962" calcext:value-type="float">
+            <text:p>154.756962</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="36.585570212766" calcext:value-type="float">
+            <text:p>36.585570212766</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="54"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>Vanguard International Ex-US</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>VXUS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.000371126368528542" calcext:value-type="percentage">
-            <text:p>-0.04%</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2.0102" calcext:value-type="float">
-            <text:p>2.0102</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45.38" calcext:value-type="float">
-            <text:p>45.38</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="45.38" calcext:value-type="float">
-            <text:p>45.38</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="53.87" calcext:value-type="float">
-            <text:p>53.87</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="108.289474" calcext:value-type="float">
-            <text:p>108.289474</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="62.909474" calcext:value-type="float">
-            <text:p>62.909474</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="138.62819303658" calcext:value-type="float">
-            <text:p>138.62819303658</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="54"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
-            <text:p>Vanguard Small-Cap Value Index Fund ETF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VBR</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.00381084358219295" calcext:value-type="percentage">
-            <text:p>-0.38%</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5.0231" calcext:value-type="float">
-            <text:p>5.0231</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.F5]/[.D5]" office:value-type="float" office:value="84.2109454321037" calcext:value-type="float">
-            <text:p>84.2109454321037</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="423" calcext:value-type="float">
-            <text:p>423.00</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="115.02" calcext:value-type="float">
-            <text:p>115.02</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="577.756962" calcext:value-type="float">
-            <text:p>577.756962</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="154.756962" calcext:value-type="float">
-            <text:p>154.756962</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="36.585570212766" calcext:value-type="float">
-            <text:p>36.585570212766</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="54"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
-            <text:p>S&amp;P 500 High Dividend ETF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SPYD</text:p>
-          </table:table-cell>
           <table:table-cell table:style-name="ce11" office:value-type="percentage" office:value="-0.00444748546014365" calcext:value-type="percentage">
             <text:p>-0.44%</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4.0402" calcext:value-type="float">
-            <text:p>4.0402</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="26.54" calcext:value-type="float">
-            <text:p>26.54</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="107.23" calcext:value-type="float">
-            <text:p>107.23</text:p>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce15" office:value-type="float" office:value="46.5" calcext:value-type="float">
+            <text:p>46.50</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="29.1" calcext:value-type="float">
             <text:p>29.1</text:p>
@@ -473,8 +470,8 @@
             <text:p>Total</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce15" table:formula="of:=SUM([.F2:.F6])" office:value-type="float" office:value="4562.62" calcext:value-type="float">
-            <text:p>4,562.62</text:p>
+          <table:table-cell table:style-name="ce15" table:formula="of:=SUM([.F2:.F6])" office:value-type="float" office:value="908.54" calcext:value-type="float">
+            <text:p>908.54</text:p>
           </table:table-cell>
           <table:table-cell/>
           <table:table-cell table:style-name="ce17" office:value-type="currency" office:currency="USD" office:value="5587.660686" calcext:value-type="currency">
@@ -483,8 +480,8 @@
           <table:table-cell table:formula="of:=SUM([.I2:.I6])" office:value-type="float" office:value="1025.040686" calcext:value-type="float">
             <text:p>1025.040686</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" table:formula="of:=[.I7]/[.F7]" office:value-type="percentage" office:value="0.224660542845996" calcext:value-type="percentage">
-            <text:p>22.47%</text:p>
+          <table:table-cell table:style-name="ce11" table:formula="of:=[.I7]/[.F7]" office:value-type="percentage" office:value="1.12822846104739" calcext:value-type="percentage">
+            <text:p>112.82%</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="54"/>
         </table:table-row>
@@ -510,9 +507,10 @@
     <meta:initial-creator>Flynn-Elhoffer, Scott</meta:initial-creator>
     <dc:language>en-US</dc:language>
     <meta:creation-date>2020-03-30T17:52:20</meta:creation-date>
-    <dc:date>2020-09-10T23:00:38</dc:date>
-    <meta:editing-cycles>22</meta:editing-cycles>
+    <dc:date>2020-09-19T00:27:13.472170100</dc:date>
+    <meta:editing-cycles>23</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.5.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
+    <meta:editing-duration>PT3M45S</meta:editing-duration>
     <meta:document-statistic meta:table-count="2" meta:cell-count="75" meta:object-count="0"/>
     <meta:user-defined meta:name="AppVersion">3.0</meta:user-defined>
   </office:meta>
@@ -532,14 +530,14 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Current">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">11</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">4</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -569,7 +567,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Current</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">965</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1469</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -606,7 +604,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">vgH+/1NhbXN1bmdfWDc2MDBfU2VyaWVzX1NFQzg0MjUxOTEyNzZCMl9teG9fc19NYWNCb29rX1BybwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpTYW1zdW5nX1g3NjAwX1Nlcmllc19TRUM4NAAWAAMA3wAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9U2Ftc3VuZ19YNzYwMF9TZXJpZXNfU0VDODQyNTE5MTI3NkIyX214b19zX01hY0Jvb2tfUHJvCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpMZXR0ZXIAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">2</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -619,7 +617,7 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="SaveThumbnail" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Samsung_X7600_Series_SEC8425191276B2_mxo_s_MacBook_Pro</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -653,25 +651,12 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:currency-style style:name="N121P0" style:volatile="true">
+    <number:currency-style style:name="N122P0" style:volatile="true">
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N121">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N122P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
     <number:currency-style style:name="N122">
-      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
@@ -680,73 +665,72 @@
     </number:currency-style>
     <number:currency-style style:name="N123P0" style:volatile="true">
       <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
     <number:currency-style style:name="N123">
+      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N123P0"/>
     </number:currency-style>
-    <number:currency-style style:name="N124P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N124">
+    <number:currency-style style:name="N125P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N125">
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N125P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N126P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N126">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N124P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N125">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N126P0"/>
+    </number:currency-style>
+    <number:date-style style:name="N127">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N126">
+    <number:date-style style:name="N128">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N127">
+    <number:date-style style:name="N129">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N128">
+    <number:date-style style:name="N130">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N129">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N130">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
     <number:time-style style:name="N131">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
     <number:time-style style:name="N132">
       <number:hours/>
@@ -754,172 +738,180 @@
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N133">
-      <number:month/>
-      <number:text>/</number:text>
-      <number:day/>
-      <number:text>/</number:text>
-      <number:year number:style="long"/>
-      <number:text> </number:text>
+    <number:time-style style:name="N133">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
-    </number:date-style>
-    <number:number-style style:name="N134P0" style:volatile="true">
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N134">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N134P0"/>
-    </number:number-style>
-    <number:number-style style:name="N135P0" style:volatile="true">
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N135">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N135P0"/>
-    </number:number-style>
-    <number:number-style style:name="N136P0" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N136P1" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N136P2" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N136">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N136P2"/>
-    </number:text-style>
-    <number:currency-style style:name="N137P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N137P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N137P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>- </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N137">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N137P2"/>
-    </number:text-style>
-    <number:number-style style:name="N138P0" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N138P1" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N138P2" style:volatile="true">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:text-style style:name="N138">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N138P2"/>
-    </number:text-style>
-    <number:currency-style style:name="N139P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N139P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N139P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N139">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N139P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N139P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N139P2"/>
-    </number:text-style>
-    <number:time-style style:name="N140">
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N141" number:truncate-on-overflow="false">
+    <number:time-style style:name="N134">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N142">
+    <number:date-style style:name="N135">
+      <number:month/>
+      <number:text>/</number:text>
+      <number:day/>
+      <number:text>/</number:text>
+      <number:year number:style="long"/>
+      <number:text> </number:text>
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+    </number:date-style>
+    <number:number-style style:name="N137P0" style:volatile="true">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N137">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N137P0"/>
+    </number:number-style>
+    <number:number-style style:name="N139P0" style:volatile="true">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N139">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N139P0"/>
+    </number:number-style>
+    <number:number-style style:name="N143P0" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N143P1" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N143P2" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N143">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N143P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N143P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N143P2"/>
+    </number:text-style>
+    <number:currency-style style:name="N147P0" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N147P1" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N147P2" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>- </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N147">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N147P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N147P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N147P2"/>
+    </number:text-style>
+    <number:number-style style:name="N151P0" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N151P1" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N151P2" style:volatile="true">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:text-style style:name="N151">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N151P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N151P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N151P2"/>
+    </number:text-style>
+    <number:currency-style style:name="N155P0" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N155P1" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N155P2" style:volatile="true">
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N155">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N155P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N155P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N155P2"/>
+    </number:text-style>
+    <number:time-style style:name="N156">
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N157" number:truncate-on-overflow="false">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N158">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N143">
+    <number:number-style style:name="N159">
       <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -1055,9 +1047,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-09-18">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-09-19">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="00:23:28.255493193">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -28,22 +28,28 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="0.8917in"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.889in"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="4.9311in"/>
     </style:style>
-    <style:style style:name="co3" style:family="table-column">
+    <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.9862in"/>
     </style:style>
-    <style:style style:name="co4" style:family="table-column">
+    <style:style style:name="co5" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.7508in"/>
     </style:style>
-    <style:style style:name="co5" style:family="table-column">
+    <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.1811in"/>
     </style:style>
-    <style:style style:name="co6" style:family="table-column">
+    <style:style style:name="co7" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.611in"/>
     </style:style>
-    <style:style style:name="co7" style:family="table-column">
+    <style:style style:name="co8" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.472in"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.0146in"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.1917in" fo:break-before="auto" style:use-optimal-row-height="false"/>
@@ -87,22 +93,22 @@
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N104P0"/>
     </number:currency-style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
     <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -208,42 +214,42 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
             <text:p>Today's change</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Total cost</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Total market value</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Total gain/loss</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Total gain/loss (%)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce23"/>
+          <table:table-cell table:style-name="ce12"/>
           <table:table-cell table:number-columns-repeated="62"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -252,14 +258,16 @@
       </table:table>
       <table:table table:name="Current" table:style-name="ta2">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce24"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce23"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="54" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce21"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co5" table:number-columns-repeated="2" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co5" table:number-columns-repeated="2" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="49" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>Investment Name</text:p>
@@ -291,14 +299,23 @@
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>Gain/Loss (%)</text:p>
           </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+            <text:p>High</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+            <text:p>Low</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+            <text:p>Dividends</text:p>
+          </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Today’s change</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce20" office:value-type="currency" office:currency="USD" office:value="0" calcext:value-type="currency">
             <text:p>$0.00</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="51"/>
+          <table:table-cell table:number-columns-repeated="48"/>
         </table:table-row>
         <table:table-row-group>
           <table:table-row table:style-name="ro1">
@@ -332,14 +349,14 @@
             <table:table-cell table:style-name="ce19" office:value-type="float" office:value="17.8502626845419" calcext:value-type="float">
               <text:p>17.8502626845419</text:p>
             </table:table-cell>
-            <table:table-cell/>
-            <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
+            <table:table-cell table:number-columns-repeated="4"/>
+            <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
               <text:p>Prior day’s portfolio value</text:p>
             </table:table-cell>
             <table:table-cell table:style-name="ce42" office:value-type="float" office:value="0" calcext:value-type="float">
               <text:p>0</text:p>
             </table:table-cell>
-            <table:table-cell table:number-columns-repeated="51"/>
+            <table:table-cell table:number-columns-repeated="48"/>
           </table:table-row>
           <table:table-row table:style-name="ro1">
             <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -507,11 +524,11 @@
     <meta:initial-creator>Flynn-Elhoffer, Scott</meta:initial-creator>
     <dc:language>en-US</dc:language>
     <meta:creation-date>2020-03-30T17:52:20</meta:creation-date>
-    <dc:date>2020-09-19T00:27:13.472170100</dc:date>
-    <meta:editing-cycles>23</meta:editing-cycles>
+    <dc:date>2020-09-26T18:16:33.171438358</dc:date>
+    <meta:editing-cycles>24</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.5.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:editing-duration>PT3M45S</meta:editing-duration>
-    <meta:document-statistic meta:table-count="2" meta:cell-count="75" meta:object-count="0"/>
+    <meta:editing-duration>PT4M57S</meta:editing-duration>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="78" meta:object-count="0"/>
     <meta:user-defined meta:name="AppVersion">3.0</meta:user-defined>
   </office:meta>
 </office:document-meta>
@@ -523,21 +540,21 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">55488</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">65135</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">3868</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Current">
-              <config:config-item config:name="CursorPositionX" config:type="int">11</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">4</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -567,7 +584,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Current</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1469</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">965</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -604,7 +621,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">vgH+/1NhbXN1bmdfWDc2MDBfU2VyaWVzX1NFQzg0MjUxOTEyNzZCMl9teG9fc19NYWNCb29rX1BybwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpTYW1zdW5nX1g3NjAwX1Nlcmllc19TRUM4NAAWAAMA3wAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9U2Ftc3VuZ19YNzYwMF9TZXJpZXNfU0VDODQyNTE5MTI3NkIyX214b19zX01hY0Jvb2tfUHJvCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpMZXR0ZXIAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">lwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAuAAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpMZXR0ZXIAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">2</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -617,7 +634,7 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="SaveThumbnail" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string">Samsung_X7600_Series_SEC8425191276B2_mxo_s_MacBook_Pro</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -1047,9 +1064,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-09-19">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-09-26">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="00:23:28.255493193">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="18:15:20.823911606">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
